--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31d94f31b03e21de/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krmgst\source\repos\cs-excel-testdatahelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{782996F7-FE74-4CE3-AD1D-20D19DFF30CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDFFB08-8005-45BB-89DA-D17959284C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19500" xr2:uid="{70869B7A-FDAD-4ECB-9972-97ECB8952387}"/>
   </bookViews>
@@ -394,12 +394,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF276915-8F23-411F-9C62-0B5D67C803D1}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10">
+        <f>D1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11">
+        <f>D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krmgst\source\repos\cs-excel-testdatahelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDFFB08-8005-45BB-89DA-D17959284C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F29AA1-04E8-469B-AF89-438EDBBF6A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19500" xr2:uid="{70869B7A-FDAD-4ECB-9972-97ECB8952387}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -428,27 +428,27 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10">
-        <f>D1</f>
-        <v>0</v>
+      <c r="C10" t="str">
+        <f>TEXT(TEXT(D1,""),"")&amp;"aaa"</f>
+        <v>aaa</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11">
-        <f>D2</f>
-        <v>0</v>
+      <c r="C11" t="str">
+        <f>TEXT(TEXT(D2,""),"")&amp;"aaa"</f>
+        <v>aaa</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12">
-        <f>D3</f>
-        <v>0</v>
+      <c r="C12" t="str">
+        <f>TEXT(TEXT(D3,""),"")&amp;"aaa"</f>
+        <v>aaa</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13">
-        <f>D4</f>
-        <v>0</v>
+      <c r="C13" t="str">
+        <f>TEXT(TEXT(D4,""),"")&amp;"aaa"</f>
+        <v>aaa</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krmgst\source\repos\cs-excel-testdatahelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F29AA1-04E8-469B-AF89-438EDBBF6A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB45DDA-B7E2-48D4-BF0D-CD58B86C1C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19500" xr2:uid="{70869B7A-FDAD-4ECB-9972-97ECB8952387}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krmgst\source\repos\cs-excel-testdatahelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB45DDA-B7E2-48D4-BF0D-CD58B86C1C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0A0234-2DF6-4AF6-A396-A0995539CABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19500" xr2:uid="{70869B7A-FDAD-4ECB-9972-97ECB8952387}"/>
   </bookViews>
@@ -394,60 +394,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF276915-8F23-411F-9C62-0B5D67C803D1}">
-  <dimension ref="B1:C13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3">
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4">
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5">
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" t="str">
         <f>TEXT(TEXT(D1,""),"")&amp;"aaa"</f>
         <v>aaa</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="str">
         <f>TEXT(TEXT(D2,""),"")&amp;"aaa"</f>
         <v>aaa</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="str">
         <f>TEXT(TEXT(D3,""),"")&amp;"aaa"</f>
         <v>aaa</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="str">
         <f>TEXT(TEXT(D4,""),"")&amp;"aaa"</f>
+        <v>aaa</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="str">
+        <f>TEXT(TEXT(D5,""),"")&amp;"aaa"</f>
         <v>aaa</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krmgst\source\repos\cs-excel-testdatahelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0A0234-2DF6-4AF6-A396-A0995539CABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFEE795-DDD0-4CB0-9BB0-C5EC11E8B8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19500" xr2:uid="{70869B7A-FDAD-4ECB-9972-97ECB8952387}"/>
   </bookViews>
@@ -396,7 +396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF276915-8F23-411F-9C62-0B5D67C803D1}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
